--- a/PROGRAMACIONES DE CIRUGIA DIARIA/4. ABRIL.xlsx
+++ b/PROGRAMACIONES DE CIRUGIA DIARIA/4. ABRIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="01 ABRIL" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="305">
   <si>
     <t xml:space="preserve">REGISTRO DE PROGRAMACION  DE CIRUGIAS </t>
   </si>
@@ -967,6 +967,54 @@
   </si>
   <si>
     <t xml:space="preserve">DHS ACERO + CANULADOS 6.5 ACERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:00PM </t>
+  </si>
+  <si>
+    <t>DR. ECHANIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUTOR COLLES ( MUNECA ) </t>
+  </si>
+  <si>
+    <t>16 DE MARZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00MD </t>
+  </si>
+  <si>
+    <t>DR MORENO</t>
+  </si>
+  <si>
+    <t>SAN JOSEPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:00AM </t>
+  </si>
+  <si>
+    <t>DR PERALTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR GARCIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IESS MILAGRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLINICA SAN GABRIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA ACROMIOCLAVICULAR ACERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUTOR AO </t>
+  </si>
+  <si>
+    <t>JEAN CARLOS</t>
   </si>
 </sst>
 </file>
@@ -5057,7 +5105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -5393,7 +5441,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
@@ -5579,13 +5627,27 @@
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:11">
@@ -5689,10 +5751,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
@@ -5817,64 +5879,94 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31">
+    <row r="8" spans="1:11" ht="37.5" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>268</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>62</v>
+        <v>298</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I8" s="9"/>
+        <v>302</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="31">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="28.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -5888,7 +5980,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -5902,7 +5994,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -5916,7 +6008,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
@@ -5929,31 +6021,45 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="10">
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5"/>
+      <c r="B16" s="10">
         <v>8</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="19" spans="4:9" ht="17.5">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="20" spans="4:9" ht="17.5">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="22" spans="4:9">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5975,7 +6081,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
@@ -6105,12 +6211,24 @@
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>

--- a/PROGRAMACIONES DE CIRUGIA DIARIA/4. ABRIL.xlsx
+++ b/PROGRAMACIONES DE CIRUGIA DIARIA/4. ABRIL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PROGRAMACIONES DE CIRUGIA DIARIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBC7D5-FE79-46F0-83F8-C2BC4D54DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01 ABRIL" sheetId="1" r:id="rId1"/>
@@ -43,7 +44,7 @@
     <sheet name="29 ABRIL" sheetId="29" r:id="rId29"/>
     <sheet name="30 ABRIL" sheetId="30" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="318">
   <si>
     <t xml:space="preserve">REGISTRO DE PROGRAMACION  DE CIRUGIAS </t>
   </si>
@@ -987,9 +988,6 @@
     <t>DR MORENO</t>
   </si>
   <si>
-    <t>SAN JOSEPH</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUNES </t>
   </si>
   <si>
@@ -1014,14 +1012,56 @@
     <t xml:space="preserve">TUTOR AO </t>
   </si>
   <si>
-    <t>JEAN CARLOS</t>
+    <t xml:space="preserve">17:00PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR ECHANIQUE </t>
+  </si>
+  <si>
+    <t>REALIZDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA DE RADIO DISTAL ACERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA DE RADIO DISTAL ARIX + RMO TUTOR COLLES </t>
+  </si>
+  <si>
+    <t>CLINICA TAFUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00PM </t>
+  </si>
+  <si>
+    <t>DR. RAUTER</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS  MEJIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00PM </t>
+  </si>
+  <si>
+    <t>EQUIPO RMO DE PLACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTESIS DE CADERA CEMENTADA, NO CEMENTADA Y BIPOLAR </t>
+  </si>
+  <si>
+    <t>PLACA DE RADIO DISTAL AV TITANIO</t>
+  </si>
+  <si>
+    <t>EQUIPO DE AMPUTACION</t>
+  </si>
+  <si>
+    <t>APLAZADA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1440,21 +1480,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1538,6 +1563,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3612,55 +3658,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.4140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3668,48 +3714,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -3741,7 +3787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.5" customHeight="1">
+    <row r="8" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -3771,7 +3817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="25.5" customHeight="1">
+    <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -3801,7 +3847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24" customHeight="1">
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -3831,7 +3877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -3861,7 +3907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -3891,14 +3937,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.5">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="15"/>
@@ -3921,55 +3967,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3977,48 +4023,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4050,7 +4096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -4080,7 +4126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.75" customHeight="1">
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -4110,7 +4156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -4140,7 +4186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1">
+    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -4170,7 +4216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="10">
         <v>5</v>
@@ -4200,7 +4246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -4230,7 +4276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.5" customHeight="1">
+    <row r="14" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -4260,7 +4306,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1">
+    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>8</v>
@@ -4290,14 +4336,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -4320,55 +4366,55 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4376,48 +4422,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1">
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -4482,7 +4528,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.5" customHeight="1">
+    <row r="9" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -4515,7 +4561,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.15" customHeight="1">
+    <row r="10" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -4548,7 +4594,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -4581,7 +4627,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -4614,7 +4660,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -4647,7 +4693,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -4678,7 +4724,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -4711,14 +4757,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -4741,55 +4787,55 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="B1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4797,48 +4843,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4870,7 +4916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="46.5">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -4903,7 +4949,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="37.5" customHeight="1">
+    <row r="9" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -4936,7 +4982,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -4969,7 +5015,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -5002,7 +5048,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -5028,63 +5074,26 @@
       <c r="I12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="19" spans="4:9" ht="17.5">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="J12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5102,55 +5111,55 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5158,48 +5167,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5231,7 +5240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5261,7 +5270,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5291,67 +5300,67 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="33">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="38">
+      <c r="B11" s="33">
         <v>4</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -5365,7 +5374,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -5379,7 +5388,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -5393,7 +5402,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -5407,14 +5416,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -5437,55 +5446,55 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5493,48 +5502,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -5592,9 +5601,11 @@
       <c r="I8" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" ht="28.5" customHeight="1">
+      <c r="J8" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5620,9 +5631,11 @@
       <c r="I9" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -5648,91 +5661,23 @@
       <c r="I10" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="19" spans="4:9" ht="17.5">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="21" spans="4:9">
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="J10" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5750,55 +5695,55 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5806,48 +5751,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -5879,35 +5824,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5" customHeight="1">
+    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>268</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="G8" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" ht="31">
+      <c r="J8" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5933,15 +5880,17 @@
       <c r="I9" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" ht="28.5" customHeight="1">
+      <c r="J9" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>268</v>
@@ -5950,76 +5899,136 @@
         <v>286</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:11">
+        <v>311</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
+      <c r="C11" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="5">
+      <c r="B12" s="61">
         <v>4</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="C12" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="5">
+      <c r="B13" s="61">
         <v>5</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="C13" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="5">
+      <c r="B14" s="61">
         <v>6</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="C14" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>7</v>
@@ -6033,7 +6042,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="10">
         <v>8</v>
@@ -6047,14 +6056,14 @@
       <c r="I16" s="14"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="20" spans="4:9" ht="17.5">
+    <row r="20" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="22" spans="4:9">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
       <c r="F22" s="15"/>
@@ -6077,55 +6086,55 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6133,48 +6142,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -6206,7 +6215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -6224,43 +6233,67 @@
         <v>294</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>316</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -6274,7 +6307,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -6288,7 +6321,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -6302,7 +6335,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -6316,7 +6349,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -6330,14 +6363,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -6360,55 +6393,55 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6416,48 +6449,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -6489,7 +6522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -6503,7 +6536,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -6517,7 +6550,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -6531,7 +6564,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -6545,7 +6578,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -6559,7 +6592,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -6573,7 +6606,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -6587,7 +6620,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -6601,14 +6634,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -6631,55 +6664,55 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6687,48 +6720,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -6760,7 +6793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -6774,7 +6807,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -6788,7 +6821,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -6802,7 +6835,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -6816,7 +6849,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -6830,7 +6863,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -6844,7 +6877,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -6858,7 +6891,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -6872,14 +6905,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -6902,55 +6935,55 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6958,48 +6991,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7031,7 +7064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -7045,7 +7078,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -7059,7 +7092,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -7073,7 +7106,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -7087,7 +7120,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -7101,7 +7134,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -7115,7 +7148,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -7129,7 +7162,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -7143,14 +7176,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -7173,55 +7206,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="B9" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.4140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7229,48 +7262,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7302,7 +7335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -7332,7 +7365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -7360,7 +7393,7 @@
       </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="10">
         <v>3</v>
@@ -7390,7 +7423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="39" customHeight="1">
+    <row r="11" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -7420,7 +7453,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1">
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -7450,7 +7483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -7480,7 +7513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>5</v>
@@ -7508,7 +7541,7 @@
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="24.75" customHeight="1">
+    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>6</v>
@@ -7536,7 +7569,7 @@
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>7</v>
@@ -7550,7 +7583,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="10">
         <v>8</v>
@@ -7564,14 +7597,14 @@
       <c r="I17" s="14"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="17.5">
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
       <c r="F23" s="15"/>
@@ -7594,55 +7627,55 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7650,48 +7683,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7723,7 +7756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -7737,7 +7770,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -7751,7 +7784,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -7765,7 +7798,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -7779,7 +7812,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -7793,7 +7826,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -7807,7 +7840,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -7821,7 +7854,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -7835,14 +7868,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -7865,55 +7898,55 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7921,48 +7954,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -7994,7 +8027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -8008,7 +8041,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8022,7 +8055,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8036,7 +8069,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8050,7 +8083,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8064,7 +8097,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8078,7 +8111,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8092,7 +8125,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8106,14 +8139,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8136,55 +8169,55 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8192,48 +8225,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8265,7 +8298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -8279,7 +8312,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8293,7 +8326,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8307,7 +8340,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8321,7 +8354,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8335,7 +8368,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8349,7 +8382,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8363,7 +8396,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8377,14 +8410,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8407,55 +8440,55 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8463,48 +8496,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8536,7 +8569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -8550,7 +8583,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8564,7 +8597,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8578,7 +8611,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8592,7 +8625,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8606,7 +8639,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8620,7 +8653,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8634,7 +8667,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8648,14 +8681,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8678,55 +8711,55 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8734,48 +8767,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -8807,7 +8840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -8821,7 +8854,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -8835,7 +8868,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -8849,7 +8882,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -8863,7 +8896,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -8877,7 +8910,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -8891,7 +8924,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -8905,7 +8938,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -8919,14 +8952,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -8949,55 +8982,55 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9005,48 +9038,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9078,7 +9111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9092,7 +9125,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9106,7 +9139,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9120,7 +9153,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9134,7 +9167,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9148,7 +9181,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9162,7 +9195,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9176,7 +9209,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9190,14 +9223,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9220,55 +9253,55 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9276,48 +9309,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9349,7 +9382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9363,7 +9396,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9377,7 +9410,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9391,7 +9424,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9405,7 +9438,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9419,7 +9452,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9433,7 +9466,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9447,7 +9480,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9461,14 +9494,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9491,55 +9524,55 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9547,48 +9580,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9620,7 +9653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9634,7 +9667,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9648,7 +9681,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9662,7 +9695,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9676,7 +9709,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9690,7 +9723,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9704,7 +9737,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9718,7 +9751,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -9732,14 +9765,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -9762,55 +9795,55 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9818,48 +9851,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9891,7 +9924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -9905,7 +9938,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -9919,7 +9952,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -9933,7 +9966,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -9947,7 +9980,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -9961,7 +9994,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9975,7 +10008,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9989,7 +10022,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10003,14 +10036,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10033,55 +10066,55 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10089,48 +10122,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10162,7 +10195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10176,7 +10209,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10190,7 +10223,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10204,7 +10237,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10218,7 +10251,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10232,7 +10265,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -10246,7 +10279,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -10260,7 +10293,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10274,14 +10307,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10304,55 +10337,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.58203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10360,48 +10393,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10433,7 +10466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10463,7 +10496,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24" customHeight="1">
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10493,7 +10526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10523,7 +10556,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10553,7 +10586,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10583,14 +10616,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.5">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="15"/>
@@ -10613,55 +10646,55 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10669,48 +10702,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -10742,7 +10775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -10756,7 +10789,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -10770,7 +10803,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10784,7 +10817,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10798,7 +10831,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -10812,7 +10845,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -10826,7 +10859,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -10840,7 +10873,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -10854,14 +10887,14 @@
       <c r="I15" s="14"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -10884,55 +10917,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10940,48 +10973,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11013,7 +11046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -11043,7 +11076,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -11073,7 +11106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11103,7 +11136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11133,7 +11166,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -11163,7 +11196,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -11193,7 +11226,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -11223,7 +11256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -11253,14 +11286,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="17.5">
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -11283,55 +11316,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11339,48 +11372,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11412,7 +11445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -11442,7 +11475,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -11472,7 +11505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11502,7 +11535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11532,7 +11565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -11562,7 +11595,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -11592,7 +11625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -11622,14 +11655,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="17.5">
+    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
@@ -11652,55 +11685,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.4140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.58203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11708,48 +11741,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -11781,7 +11814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -11811,7 +11844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="10">
         <v>2</v>
@@ -11841,7 +11874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31">
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -11871,7 +11904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -11901,7 +11934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>6</v>
@@ -11931,7 +11964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="46.5">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>5</v>
@@ -11961,14 +11994,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="17.5">
+    <row r="17" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="19" spans="4:9">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="15"/>
@@ -11991,55 +12024,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12047,48 +12080,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12120,7 +12153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12150,14 +12183,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.5">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
@@ -12180,55 +12213,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12236,48 +12269,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12309,7 +12342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12339,7 +12372,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -12369,7 +12402,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -12399,7 +12432,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -12429,7 +12462,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -12459,7 +12492,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -12489,7 +12522,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31">
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -12519,7 +12552,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -12549,7 +12582,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31">
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -12578,7 +12611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -12607,14 +12640,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="17.5">
+    <row r="19" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="15"/>
@@ -12637,55 +12670,55 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.4140625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.4140625" style="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="62" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12693,48 +12726,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56" t="s">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62" t="s">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11" ht="31">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12766,7 +12799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -12796,7 +12829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -12826,7 +12859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -12856,7 +12889,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+    <row r="11" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -12886,7 +12919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="27">
         <v>5</v>
@@ -12916,7 +12949,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -12946,7 +12979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" customHeight="1">
+    <row r="14" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -12976,14 +13009,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="17.5">
+    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>

--- a/PROGRAMACIONES DE CIRUGIA DIARIA/4. ABRIL.xlsx
+++ b/PROGRAMACIONES DE CIRUGIA DIARIA/4. ABRIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PROGRAMACIONES DE CIRUGIA DIARIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CBC7D5-FE79-46F0-83F8-C2BC4D54DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA1EB74-DE9B-460B-ACEA-BF2F8587A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="319">
   <si>
     <t xml:space="preserve">REGISTRO DE PROGRAMACION  DE CIRUGIAS </t>
   </si>
@@ -1012,15 +1012,6 @@
     <t xml:space="preserve">TUTOR AO </t>
   </si>
   <si>
-    <t xml:space="preserve">17:00PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR ECHANIQUE </t>
-  </si>
-  <si>
-    <t>REALIZDA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLACA DE RADIO DISTAL ACERO </t>
   </si>
   <si>
@@ -1055,6 +1046,18 @@
   </si>
   <si>
     <t>APLAZADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:30PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. ECHANIQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRA. BARREZUETA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA DE MANO ARIX + CLAVIJAS DE KIRSCHNER + MOTOR RIGS </t>
   </si>
 </sst>
 </file>
@@ -4791,7 +4794,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C15"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5115,7 +5118,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5450,7 +5453,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5602,7 +5605,7 @@
         <v>256</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5632,7 +5635,7 @@
         <v>244</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5662,7 +5665,7 @@
         <v>244</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -5696,10 +5699,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5853,6 +5856,9 @@
       <c r="J8" s="22" t="s">
         <v>122</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -5883,6 +5889,9 @@
       <c r="J9" s="22" t="s">
         <v>122</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -5908,7 +5917,7 @@
         <v>302</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J10" s="22" t="s">
         <v>122</v>
@@ -5926,21 +5935,26 @@
         <v>268</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -5954,7 +5968,7 @@
         <v>268</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F12" s="62" t="s">
         <v>208</v>
@@ -5963,12 +5977,17 @@
         <v>132</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I12" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -5982,21 +6001,26 @@
         <v>268</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G13" s="62" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I13" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -6010,7 +6034,7 @@
         <v>268</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>215</v>
@@ -6019,56 +6043,28 @@
         <v>216</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I14" s="65" t="s">
         <v>171</v>
       </c>
       <c r="J14" s="66" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="20" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E20" s="15"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="H20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6090,7 +6086,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6236,9 +6232,11 @@
         <v>173</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I8" s="9"/>
+        <v>303</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6253,18 +6251,20 @@
         <v>292</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="I9" s="9"/>
+        <v>251</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6279,32 +6279,48 @@
         <v>292</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="I10" s="9"/>
+        <v>315</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="9"/>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/PROGRAMACIONES DE CIRUGIA DIARIA/4. ABRIL.xlsx
+++ b/PROGRAMACIONES DE CIRUGIA DIARIA/4. ABRIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PROGRAMACIONES DE CIRUGIA DIARIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA1EB74-DE9B-460B-ACEA-BF2F8587A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BF513-08B0-4EBF-8EB4-C7C74996FB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="326">
   <si>
     <t xml:space="preserve">REGISTRO DE PROGRAMACION  DE CIRUGIAS </t>
   </si>
@@ -1058,6 +1058,27 @@
   </si>
   <si>
     <t xml:space="preserve">PLACA DE MANO ARIX + CLAVIJAS DE KIRSCHNER + MOTOR RIGS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLINICA GERMAN BABHOYO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANULADOS 6.5MM ACERO + BASICO 4.5MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDIENTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA DE TIBIA PROXIMAL TIT 4.5MM + CANULADOS 6.5MM + CERCLAJE + ACUTEC 7.0MM </t>
+  </si>
+  <si>
+    <t>MINIFRAGMENTOS 2.8MM + CANULADOS 6.5MM TITANIO  PLACA DE TIBIA PROXIMAL 4.5 Y 3.5MM  TIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA DE CLAVICULA ARIX + CANULADOS 4.0MM TITANIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASA PARA 17 ABRIL </t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1501,6 +1522,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1567,9 +1591,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1582,10 +1603,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3685,31 +3703,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3718,45 +3736,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -3994,31 +4012,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4027,45 +4045,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -4393,31 +4411,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4426,45 +4444,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -4814,31 +4832,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4847,45 +4865,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -5118,7 +5136,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5138,31 +5156,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5171,45 +5189,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -5473,31 +5491,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5506,45 +5524,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -5702,7 +5720,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5722,31 +5740,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5755,45 +5773,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -5922,6 +5940,9 @@
       <c r="J10" s="22" t="s">
         <v>122</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -5949,7 +5970,7 @@
       <c r="I11" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="22" t="s">
         <v>122</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -5958,31 +5979,31 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="61">
+      <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="22" t="s">
         <v>122</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -5991,31 +6012,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="61">
+      <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="J13" s="22" t="s">
         <v>122</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -6024,32 +6045,64 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="61">
+      <c r="B14" s="5">
         <v>6</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="22" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -6085,8 +6138,367 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="62.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="61"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="66">
+        <v>5</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="66">
+        <v>6</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6106,31 +6518,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6139,45 +6551,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -6211,345 +6623,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E8" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="19" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="65"/>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6557,13 +6654,13 @@
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="65"/>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6704,31 +6801,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6737,45 +6834,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -6975,31 +7072,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7008,45 +7105,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -7246,31 +7343,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7279,45 +7376,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -7667,31 +7764,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7700,45 +7797,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -7938,31 +8035,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7971,45 +8068,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -8209,31 +8306,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8242,45 +8339,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -8480,31 +8577,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8513,45 +8610,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -8751,31 +8848,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8784,45 +8881,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -9022,31 +9119,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9055,45 +9152,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -9293,31 +9390,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9326,45 +9423,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -9564,31 +9661,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9597,45 +9694,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -9835,31 +9932,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9868,45 +9965,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -10106,31 +10203,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10139,45 +10236,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -10377,31 +10474,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10410,45 +10507,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -10686,31 +10783,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10719,45 +10816,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -10957,31 +11054,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10990,45 +11087,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -11356,31 +11453,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11389,45 +11486,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -11725,31 +11822,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11758,45 +11855,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -12064,31 +12161,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12097,45 +12194,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -12253,31 +12350,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12286,45 +12383,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -12710,31 +12807,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="51" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="57" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
@@ -12743,45 +12840,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
